--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.01249966666666667</v>
+        <v>1.838251333333333</v>
       </c>
       <c r="H2">
-        <v>0.037499</v>
+        <v>5.514754</v>
       </c>
       <c r="I2">
-        <v>4.922452635634417E-05</v>
+        <v>0.004801581688401318</v>
       </c>
       <c r="J2">
-        <v>4.925314557495024E-05</v>
+        <v>0.004827981053047166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.296849666666667</v>
+        <v>1.143899333333333</v>
       </c>
       <c r="N2">
-        <v>9.890549</v>
+        <v>3.431698</v>
       </c>
       <c r="O2">
-        <v>0.06532810080989171</v>
+        <v>0.0786649926114418</v>
       </c>
       <c r="P2">
-        <v>0.08920500662862835</v>
+        <v>0.09278552072412605</v>
       </c>
       <c r="Q2">
-        <v>0.04120952188344444</v>
+        <v>2.102774474699111</v>
       </c>
       <c r="R2">
-        <v>0.370885696951</v>
+        <v>18.924970272292</v>
       </c>
       <c r="S2">
-        <v>3.215744820126423E-06</v>
+        <v>0.0003777163880413239</v>
       </c>
       <c r="T2">
-        <v>4.393627177494233E-06</v>
+        <v>0.0004479667360531957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01249966666666667</v>
+        <v>1.838251333333333</v>
       </c>
       <c r="H3">
-        <v>0.037499</v>
+        <v>5.514754</v>
       </c>
       <c r="I3">
-        <v>4.922452635634417E-05</v>
+        <v>0.004801581688401318</v>
       </c>
       <c r="J3">
-        <v>4.925314557495024E-05</v>
+        <v>0.004827981053047166</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>17.809439</v>
       </c>
       <c r="O3">
-        <v>0.1176331896601106</v>
+        <v>0.4082467010060103</v>
       </c>
       <c r="P3">
-        <v>0.1606271930958688</v>
+        <v>0.4815278242489749</v>
       </c>
       <c r="Q3">
-        <v>0.07420401700677778</v>
+        <v>10.91274166255622</v>
       </c>
       <c r="R3">
-        <v>0.667836153061</v>
+        <v>98.214674963006</v>
       </c>
       <c r="S3">
-        <v>5.790438044804945E-06</v>
+        <v>0.001960229883900707</v>
       </c>
       <c r="T3">
-        <v>7.91139452484647E-06</v>
+        <v>0.002324807211989076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.838251333333333</v>
+      </c>
+      <c r="H4">
+        <v>5.514754</v>
+      </c>
+      <c r="I4">
+        <v>0.004801581688401318</v>
+      </c>
+      <c r="J4">
+        <v>0.004827981053047166</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.01249966666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.037499</v>
-      </c>
-      <c r="I4">
-        <v>4.922452635634417E-05</v>
-      </c>
-      <c r="J4">
-        <v>4.925314557495024E-05</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.3593903333333333</v>
+        <v>0.02736833333333333</v>
       </c>
       <c r="N4">
-        <v>1.078171</v>
+        <v>0.082105</v>
       </c>
       <c r="O4">
-        <v>0.007121431153953309</v>
+        <v>0.001882097206211744</v>
       </c>
       <c r="P4">
-        <v>0.009724258097482239</v>
+        <v>0.002219937529192361</v>
       </c>
       <c r="Q4">
-        <v>0.004492259369888888</v>
+        <v>0.05030987524111111</v>
       </c>
       <c r="R4">
-        <v>0.040430334329</v>
+        <v>0.45278887717</v>
       </c>
       <c r="S4">
-        <v>3.505490755326651E-07</v>
+        <v>9.037043481137587E-06</v>
       </c>
       <c r="T4">
-        <v>4.789502996836814E-07</v>
+        <v>1.071781632988906E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01249966666666667</v>
+        <v>1.838251333333333</v>
       </c>
       <c r="H5">
-        <v>0.037499</v>
+        <v>5.514754</v>
       </c>
       <c r="I5">
-        <v>4.922452635634417E-05</v>
+        <v>0.004801581688401318</v>
       </c>
       <c r="J5">
-        <v>4.925314557495024E-05</v>
+        <v>0.004827981053047166</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.52370850000001</v>
+        <v>6.638933</v>
       </c>
       <c r="N5">
-        <v>81.04741700000001</v>
+        <v>13.277866</v>
       </c>
       <c r="O5">
-        <v>0.8029898787454566</v>
+        <v>0.4565538244270245</v>
       </c>
       <c r="P5">
-        <v>0.7309842325960073</v>
+        <v>0.3590041171790666</v>
       </c>
       <c r="Q5">
-        <v>0.5065328483471667</v>
+        <v>12.20402743916067</v>
       </c>
       <c r="R5">
-        <v>3.039197090083</v>
+        <v>73.224164634964</v>
       </c>
       <c r="S5">
-        <v>3.952679645018333E-05</v>
+        <v>0.002192180483138391</v>
       </c>
       <c r="T5">
-        <v>3.600327282104443E-05</v>
+        <v>0.001733265075706458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.01249966666666667</v>
+        <v>1.838251333333333</v>
       </c>
       <c r="H6">
-        <v>0.037499</v>
+        <v>5.514754</v>
       </c>
       <c r="I6">
-        <v>4.922452635634417E-05</v>
+        <v>0.004801581688401318</v>
       </c>
       <c r="J6">
-        <v>4.925314557495024E-05</v>
+        <v>0.004827981053047166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3495983333333333</v>
+        <v>0.7947223333333334</v>
       </c>
       <c r="N6">
-        <v>1.048795</v>
+        <v>2.384167</v>
       </c>
       <c r="O6">
-        <v>0.006927399630587782</v>
+        <v>0.05465238474931167</v>
       </c>
       <c r="P6">
-        <v>0.00945930958201332</v>
+        <v>0.06446260031864033</v>
       </c>
       <c r="Q6">
-        <v>0.004369862633888888</v>
+        <v>1.460899388879778</v>
       </c>
       <c r="R6">
-        <v>0.03932876370499999</v>
+        <v>13.148094499918</v>
       </c>
       <c r="S6">
-        <v>3.409979656967971E-07</v>
+        <v>0.0002624178898397584</v>
       </c>
       <c r="T6">
-        <v>4.659007518814237E-07</v>
+        <v>0.0003112242129685477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.733016</v>
       </c>
       <c r="I7">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J7">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.296849666666667</v>
+        <v>1.143899333333333</v>
       </c>
       <c r="N7">
-        <v>9.890549</v>
+        <v>3.431698</v>
       </c>
       <c r="O7">
-        <v>0.06532810080989171</v>
+        <v>0.0786649926114418</v>
       </c>
       <c r="P7">
-        <v>0.08920500662862835</v>
+        <v>0.09278552072412605</v>
       </c>
       <c r="Q7">
-        <v>0.8055478517537779</v>
+        <v>0.2794988379075556</v>
       </c>
       <c r="R7">
-        <v>7.249930665784</v>
+        <v>2.515489541168</v>
       </c>
       <c r="S7">
-        <v>6.286014040560522E-05</v>
+        <v>5.020571287431844E-05</v>
       </c>
       <c r="T7">
-        <v>8.588493077517035E-05</v>
+        <v>5.954332414370057E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.733016</v>
       </c>
       <c r="I8">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J8">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>17.809439</v>
       </c>
       <c r="O8">
-        <v>0.1176331896601106</v>
+        <v>0.4082467010060103</v>
       </c>
       <c r="P8">
-        <v>0.1606271930958688</v>
+        <v>0.4815278242489749</v>
       </c>
       <c r="Q8">
         <v>1.450511526447111</v>
@@ -948,10 +948,10 @@
         <v>13.054603738024</v>
       </c>
       <c r="S8">
-        <v>0.0001131892512827207</v>
+        <v>0.0002605519427661435</v>
       </c>
       <c r="T8">
-        <v>0.0001546488911444268</v>
+        <v>0.0003090112239464145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.733016</v>
       </c>
       <c r="I9">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J9">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3593903333333333</v>
+        <v>0.02736833333333333</v>
       </c>
       <c r="N9">
-        <v>1.078171</v>
+        <v>0.082105</v>
       </c>
       <c r="O9">
-        <v>0.007121431153953309</v>
+        <v>0.001882097206211744</v>
       </c>
       <c r="P9">
-        <v>0.009724258097482239</v>
+        <v>0.002219937529192361</v>
       </c>
       <c r="Q9">
-        <v>0.08781295485955555</v>
+        <v>0.006687142075555555</v>
       </c>
       <c r="R9">
-        <v>0.7903165937359999</v>
+        <v>0.06018427868</v>
       </c>
       <c r="S9">
-        <v>6.852398227970135E-06</v>
+        <v>1.201195459374897E-06</v>
       </c>
       <c r="T9">
-        <v>9.362335872234816E-06</v>
+        <v>1.424602231553748E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.733016</v>
       </c>
       <c r="I10">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J10">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.52370850000001</v>
+        <v>6.638933</v>
       </c>
       <c r="N10">
-        <v>81.04741700000001</v>
+        <v>13.277866</v>
       </c>
       <c r="O10">
-        <v>0.8029898787454566</v>
+        <v>0.4565538244270245</v>
       </c>
       <c r="P10">
-        <v>0.7309842325960073</v>
+        <v>0.3590041171790666</v>
       </c>
       <c r="Q10">
-        <v>9.901508903278668</v>
+        <v>1.622148037309333</v>
       </c>
       <c r="R10">
-        <v>59.40905341967201</v>
+        <v>9.732888223855999</v>
       </c>
       <c r="S10">
-        <v>0.0007726545835016291</v>
+        <v>0.0002913826018401131</v>
       </c>
       <c r="T10">
-        <v>0.0007037781015544603</v>
+        <v>0.000230383990425329</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.733016</v>
       </c>
       <c r="I11">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J11">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3495983333333333</v>
+        <v>0.7947223333333334</v>
       </c>
       <c r="N11">
-        <v>1.048795</v>
+        <v>2.384167</v>
       </c>
       <c r="O11">
-        <v>0.006927399630587782</v>
+        <v>0.05465238474931167</v>
       </c>
       <c r="P11">
-        <v>0.00945930958201332</v>
+        <v>0.06446260031864033</v>
       </c>
       <c r="Q11">
-        <v>0.08542039063555555</v>
+        <v>0.1941813952968889</v>
       </c>
       <c r="R11">
-        <v>0.7687835157199999</v>
+        <v>1.747632557672</v>
       </c>
       <c r="S11">
-        <v>6.665696813867129E-06</v>
+        <v>3.488034315561135E-05</v>
       </c>
       <c r="T11">
-        <v>9.107248341052127E-06</v>
+        <v>4.136763447532799E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H12">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I12">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J12">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.296849666666667</v>
+        <v>1.143899333333333</v>
       </c>
       <c r="N12">
-        <v>9.890549</v>
+        <v>3.431698</v>
       </c>
       <c r="O12">
-        <v>0.06532810080989171</v>
+        <v>0.0786649926114418</v>
       </c>
       <c r="P12">
-        <v>0.08920500662862835</v>
+        <v>0.09278552072412605</v>
       </c>
       <c r="Q12">
-        <v>429.6917044597733</v>
+        <v>139.1385732780798</v>
       </c>
       <c r="R12">
-        <v>3867.225340137959</v>
+        <v>1252.247159502718</v>
       </c>
       <c r="S12">
-        <v>0.03353057278305689</v>
+        <v>0.02499313167825072</v>
       </c>
       <c r="T12">
-        <v>0.04581235268872966</v>
+        <v>0.02964152993125836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H13">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I13">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J13">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>17.809439</v>
       </c>
       <c r="O13">
-        <v>0.1176331896601106</v>
+        <v>0.4082467010060103</v>
       </c>
       <c r="P13">
-        <v>0.1606271930958688</v>
+        <v>0.4815278242489749</v>
       </c>
       <c r="Q13">
-        <v>773.72532094855</v>
+        <v>722.0856652721166</v>
       </c>
       <c r="R13">
-        <v>6963.52788853695</v>
+        <v>6498.770987449049</v>
       </c>
       <c r="S13">
-        <v>0.06037690027266555</v>
+        <v>0.1297065342121521</v>
       </c>
       <c r="T13">
-        <v>0.0824921145081448</v>
+        <v>0.1538302668758789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H14">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I14">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J14">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3593903333333333</v>
+        <v>0.02736833333333333</v>
       </c>
       <c r="N14">
-        <v>1.078171</v>
+        <v>0.082105</v>
       </c>
       <c r="O14">
-        <v>0.007121431153953309</v>
+        <v>0.001882097206211744</v>
       </c>
       <c r="P14">
-        <v>0.009724258097482239</v>
+        <v>0.002219937529192361</v>
       </c>
       <c r="Q14">
-        <v>46.84079060617345</v>
+        <v>3.328956265672777</v>
       </c>
       <c r="R14">
-        <v>421.567115455561</v>
+        <v>29.960606391055</v>
       </c>
       <c r="S14">
-        <v>0.003655175378847143</v>
+        <v>0.0005979725128617887</v>
       </c>
       <c r="T14">
-        <v>0.004994015004704021</v>
+        <v>0.0007091876426789209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H15">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I15">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J15">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.52370850000001</v>
+        <v>6.638933</v>
       </c>
       <c r="N15">
-        <v>81.04741700000001</v>
+        <v>13.277866</v>
       </c>
       <c r="O15">
-        <v>0.8029898787454566</v>
+        <v>0.4565538244270245</v>
       </c>
       <c r="P15">
-        <v>0.7309842325960073</v>
+        <v>0.3590041171790666</v>
       </c>
       <c r="Q15">
-        <v>5281.618252858159</v>
+        <v>807.5288085158676</v>
       </c>
       <c r="R15">
-        <v>31689.70951714895</v>
+        <v>4845.172851095205</v>
       </c>
       <c r="S15">
-        <v>0.4121459255594299</v>
+        <v>0.1450544832372348</v>
       </c>
       <c r="T15">
-        <v>0.3754061429870622</v>
+        <v>0.1146884902057925</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H16">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I16">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J16">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3495983333333333</v>
+        <v>0.7947223333333334</v>
       </c>
       <c r="N16">
-        <v>1.048795</v>
+        <v>2.384167</v>
       </c>
       <c r="O16">
-        <v>0.006927399630587782</v>
+        <v>0.05465238474931167</v>
       </c>
       <c r="P16">
-        <v>0.00945930958201332</v>
+        <v>0.06446260031864033</v>
       </c>
       <c r="Q16">
-        <v>45.56455978114944</v>
+        <v>96.66631353827745</v>
       </c>
       <c r="R16">
-        <v>410.081038030345</v>
+        <v>869.9968218444969</v>
       </c>
       <c r="S16">
-        <v>0.003555585952003892</v>
+        <v>0.01736394046735464</v>
       </c>
       <c r="T16">
-        <v>0.004857947363505931</v>
+        <v>0.02059340812962517</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H17">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I17">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J17">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.296849666666667</v>
+        <v>1.143899333333333</v>
       </c>
       <c r="N17">
-        <v>9.890549</v>
+        <v>3.431698</v>
       </c>
       <c r="O17">
-        <v>0.06532810080989171</v>
+        <v>0.0786649926114418</v>
       </c>
       <c r="P17">
-        <v>0.08920500662862835</v>
+        <v>0.09278552072412605</v>
       </c>
       <c r="Q17">
-        <v>1.4593554502245</v>
+        <v>7.183854822636</v>
       </c>
       <c r="R17">
-        <v>8.756132701347001</v>
+        <v>43.10312893581601</v>
       </c>
       <c r="S17">
-        <v>0.0001138793782431151</v>
+        <v>0.001290418791205647</v>
       </c>
       <c r="T17">
-        <v>0.0001037278679729373</v>
+        <v>0.001020279963732755</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H18">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I18">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J18">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>17.809439</v>
       </c>
       <c r="O18">
-        <v>0.1176331896601106</v>
+        <v>0.4082467010060103</v>
       </c>
       <c r="P18">
-        <v>0.1606271930958688</v>
+        <v>0.4815278242489749</v>
       </c>
       <c r="Q18">
-        <v>2.6277916291695</v>
+        <v>37.281959032698</v>
       </c>
       <c r="R18">
-        <v>15.766749775017</v>
+        <v>223.691754196188</v>
       </c>
       <c r="S18">
-        <v>0.0002050571550860004</v>
+        <v>0.006696869813844547</v>
       </c>
       <c r="T18">
-        <v>0.0001867778155958867</v>
+        <v>0.005294933813237853</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H19">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I19">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J19">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3593903333333333</v>
+        <v>0.02736833333333333</v>
       </c>
       <c r="N19">
-        <v>1.078171</v>
+        <v>0.082105</v>
       </c>
       <c r="O19">
-        <v>0.007121431153953309</v>
+        <v>0.001882097206211744</v>
       </c>
       <c r="P19">
-        <v>0.009724258097482239</v>
+        <v>0.002219937529192361</v>
       </c>
       <c r="Q19">
-        <v>0.1590846701355</v>
+        <v>0.17187712911</v>
       </c>
       <c r="R19">
-        <v>0.954508020813</v>
+        <v>1.03126277466</v>
       </c>
       <c r="S19">
-        <v>1.241401696910431E-05</v>
+        <v>3.087388075872049E-05</v>
       </c>
       <c r="T19">
-        <v>1.130739852158357E-05</v>
+        <v>2.441068136598204E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H20">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I20">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J20">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>40.52370850000001</v>
+        <v>6.638933</v>
       </c>
       <c r="N20">
-        <v>81.04741700000001</v>
+        <v>13.277866</v>
       </c>
       <c r="O20">
-        <v>0.8029898787454566</v>
+        <v>0.4565538244270245</v>
       </c>
       <c r="P20">
-        <v>0.7309842325960073</v>
+        <v>0.3590041171790666</v>
       </c>
       <c r="Q20">
-        <v>17.93788035308775</v>
+        <v>41.693468524218</v>
       </c>
       <c r="R20">
-        <v>71.75152141235101</v>
+        <v>166.773874096872</v>
       </c>
       <c r="S20">
-        <v>0.001399764986175764</v>
+        <v>0.007489298793269638</v>
       </c>
       <c r="T20">
-        <v>0.0008499908114426813</v>
+        <v>0.003947649426298112</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H21">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I21">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J21">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3495983333333333</v>
+        <v>0.7947223333333334</v>
       </c>
       <c r="N21">
-        <v>1.048795</v>
+        <v>2.384167</v>
       </c>
       <c r="O21">
-        <v>0.006927399630587782</v>
+        <v>0.05465238474931167</v>
       </c>
       <c r="P21">
-        <v>0.00945930958201332</v>
+        <v>0.06446260031864033</v>
       </c>
       <c r="Q21">
-        <v>0.1547502266475</v>
+        <v>4.990972282794001</v>
       </c>
       <c r="R21">
-        <v>0.928501359885</v>
+        <v>29.945833696764</v>
       </c>
       <c r="S21">
-        <v>1.207578290188825E-05</v>
+        <v>0.0008965165052904985</v>
       </c>
       <c r="T21">
-        <v>1.099931553755781E-05</v>
+        <v>0.0007088379630995591</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H22">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I22">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J22">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.296849666666667</v>
+        <v>1.143899333333333</v>
       </c>
       <c r="N22">
-        <v>9.890549</v>
+        <v>3.431698</v>
       </c>
       <c r="O22">
-        <v>0.06532810080989171</v>
+        <v>0.0786649926114418</v>
       </c>
       <c r="P22">
-        <v>0.08920500662862835</v>
+        <v>0.09278552072412605</v>
       </c>
       <c r="Q22">
-        <v>405.1767567309968</v>
+        <v>289.2290069266949</v>
       </c>
       <c r="R22">
-        <v>3646.590810578971</v>
+        <v>2603.061062340254</v>
       </c>
       <c r="S22">
-        <v>0.03161757276336596</v>
+        <v>0.05195352004106979</v>
       </c>
       <c r="T22">
-        <v>0.04319864751397309</v>
+        <v>0.06161620076893804</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H23">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I23">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J23">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>17.809439</v>
       </c>
       <c r="O23">
-        <v>0.1176331896601106</v>
+        <v>0.4082467010060103</v>
       </c>
       <c r="P23">
-        <v>0.1606271930958688</v>
+        <v>0.4815278242489749</v>
       </c>
       <c r="Q23">
-        <v>729.5824259319202</v>
+        <v>1501.008059535411</v>
       </c>
       <c r="R23">
-        <v>6566.241833387281</v>
+        <v>13509.0725358187</v>
       </c>
       <c r="S23">
-        <v>0.0569322525430315</v>
+        <v>0.2696225151533468</v>
       </c>
       <c r="T23">
-        <v>0.07778574048645889</v>
+        <v>0.3197688051239226</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H24">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I24">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J24">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.3593903333333333</v>
+        <v>0.02736833333333333</v>
       </c>
       <c r="N24">
-        <v>1.078171</v>
+        <v>0.082105</v>
       </c>
       <c r="O24">
-        <v>0.007121431153953309</v>
+        <v>0.001882097206211744</v>
       </c>
       <c r="P24">
-        <v>0.009724258097482239</v>
+        <v>0.002219937529192361</v>
       </c>
       <c r="Q24">
-        <v>44.16841056865655</v>
+        <v>6.919940977823889</v>
       </c>
       <c r="R24">
-        <v>397.515695117909</v>
+        <v>62.279468800415</v>
       </c>
       <c r="S24">
-        <v>0.003446638810833559</v>
+        <v>0.001243012573650722</v>
       </c>
       <c r="T24">
-        <v>0.004709094408084716</v>
+        <v>0.001474196786586016</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H25">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I25">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J25">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.52370850000001</v>
+        <v>6.638933</v>
       </c>
       <c r="N25">
-        <v>81.04741700000001</v>
+        <v>13.277866</v>
       </c>
       <c r="O25">
-        <v>0.8029898787454566</v>
+        <v>0.4565538244270245</v>
       </c>
       <c r="P25">
-        <v>0.7309842325960073</v>
+        <v>0.3590041171790666</v>
       </c>
       <c r="Q25">
-        <v>4980.289197518458</v>
+        <v>1678.619737496887</v>
       </c>
       <c r="R25">
-        <v>29881.73518511075</v>
+        <v>10071.71842498132</v>
       </c>
       <c r="S25">
-        <v>0.3886320068198991</v>
+        <v>0.3015264793115416</v>
       </c>
       <c r="T25">
-        <v>0.353988317423127</v>
+        <v>0.2384043284808442</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H26">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I26">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J26">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3495983333333333</v>
+        <v>0.7947223333333334</v>
       </c>
       <c r="N26">
-        <v>1.048795</v>
+        <v>2.384167</v>
       </c>
       <c r="O26">
-        <v>0.006927399630587782</v>
+        <v>0.05465238474931167</v>
       </c>
       <c r="P26">
-        <v>0.00945930958201332</v>
+        <v>0.06446260031864033</v>
       </c>
       <c r="Q26">
-        <v>42.96499178920055</v>
+        <v>200.9414155200713</v>
       </c>
       <c r="R26">
-        <v>386.684926102805</v>
+        <v>1808.472739680641</v>
       </c>
       <c r="S26">
-        <v>0.003352731200902437</v>
+        <v>0.03609462954367116</v>
       </c>
       <c r="T26">
-        <v>0.004580789753876898</v>
+        <v>0.04280776237847173</v>
       </c>
     </row>
   </sheetData>
